--- a/reports/vivado/OperationChaining7nsSolution/power/OperationChaining7nsDSPPowerReport.xlsx
+++ b/reports/vivado/OperationChaining7nsSolution/power/OperationChaining7nsDSPPowerReport.xlsx
@@ -44,19 +44,19 @@
     <t/>
   </si>
   <si>
+    <t>tmp_product (DSP48E1)</t>
+  </si>
+  <si>
+    <t>ap_clk_IBUF_BUFG</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>buff0_reg__0 (DSP48E1)</t>
-  </si>
-  <si>
-    <t>ap_clk_IBUF</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>tmp_product (DSP48E1)</t>
   </si>
 </sst>
 </file>
@@ -172,7 +172,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="2">
-        <v>0.001623438554815948</v>
+        <v>3.0515596154145896E-4</v>
       </c>
       <c r="B2" t="s" s="4">
         <v>8</v>
@@ -198,7 +198,7 @@
     </row>
     <row r="3" outlineLevel="1">
       <c r="A3" t="n" s="5">
-        <v>8.146360632963479E-4</v>
+        <v>1.4205383195076138E-4</v>
       </c>
       <c r="B3" t="s" s="4">
         <v>10</v>
@@ -219,15 +219,15 @@
         <v>13</v>
       </c>
       <c r="H3" t="n" s="2">
-        <v>35.28152084350586</v>
+        <v>5.916758060455322</v>
       </c>
     </row>
     <row r="4" outlineLevel="1">
       <c r="A4" t="n" s="5">
-        <v>5.21174690220505E-4</v>
+        <v>1.2910467921756208E-4</v>
       </c>
       <c r="B4" t="s" s="4">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C4" t="n" s="2">
         <v>142.85714721679688</v>
@@ -245,12 +245,12 @@
         <v>13</v>
       </c>
       <c r="H4" t="n" s="2">
-        <v>22.942787170410156</v>
+        <v>5.030303001403809</v>
       </c>
     </row>
     <row r="5" outlineLevel="1">
       <c r="A5" t="n" s="5">
-        <v>2.3365314700640738E-4</v>
+        <v>2.3012020392343402E-5</v>
       </c>
       <c r="B5" t="s" s="4">
         <v>14</v>
@@ -271,15 +271,15 @@
         <v>13</v>
       </c>
       <c r="H5" t="n" s="2">
-        <v>10.168420791625977</v>
+        <v>0.9818180203437805</v>
       </c>
     </row>
     <row r="6" outlineLevel="1">
       <c r="A6" t="n" s="5">
-        <v>5.397463246481493E-5</v>
+        <v>1.0985414519382175E-5</v>
       </c>
       <c r="B6" t="s" s="4">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C6" t="n" s="2">
         <v>142.85714721679688</v>
@@ -297,7 +297,7 @@
         <v>13</v>
       </c>
       <c r="H6" t="n" s="2">
-        <v>2.480562925338745</v>
+        <v>0.4906899929046631</v>
       </c>
     </row>
   </sheetData>
